--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -464,6 +464,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10146.58</v>
+      </c>
+      <c r="B5">
+        <v>9864.4599999999991</v>
+      </c>
+      <c r="C5">
+        <v>113.86</v>
+      </c>
+      <c r="D5">
+        <v>110.6</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-2.86</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42607.884236111109</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10408.36</v>
+      </c>
+      <c r="B6">
+        <v>10146.58</v>
+      </c>
+      <c r="C6">
+        <v>110.77</v>
+      </c>
+      <c r="D6">
+        <v>107.91</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-2.58</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42608.616319444445</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,6 +516,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10488.5</v>
+      </c>
+      <c r="B7">
+        <v>10408.36</v>
+      </c>
+      <c r="C7">
+        <v>107.96</v>
+      </c>
+      <c r="D7">
+        <v>108.79</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.77</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42609.48847222222</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,6 +542,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10379.42</v>
+      </c>
+      <c r="B8">
+        <v>10488.5</v>
+      </c>
+      <c r="C8">
+        <v>109.08</v>
+      </c>
+      <c r="D8">
+        <v>107.95</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-1.04</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42612.672962962963</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10295.35</v>
+      </c>
+      <c r="B9">
+        <v>10379.42</v>
+      </c>
+      <c r="C9">
+        <v>107.89</v>
+      </c>
+      <c r="D9">
+        <v>107.02</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-0.81</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42613.765509259261</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10254.17</v>
+      </c>
+      <c r="B10">
+        <v>10295.35</v>
+      </c>
+      <c r="C10">
+        <v>107.17</v>
+      </c>
+      <c r="D10">
+        <v>106.74</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-0.4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42614.672789351855</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10189.57</v>
+      </c>
+      <c r="B11">
+        <v>10254.17</v>
+      </c>
+      <c r="C11">
+        <v>107.04</v>
+      </c>
+      <c r="D11">
+        <v>106.37</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-0.63</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42615.750115740739</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,6 +646,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10279.24</v>
+      </c>
+      <c r="B12">
+        <v>10189.57</v>
+      </c>
+      <c r="C12">
+        <v>105.78</v>
+      </c>
+      <c r="D12">
+        <v>106.71</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.88</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42620.766238425924</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10301.85</v>
+      </c>
+      <c r="B13">
+        <v>10279.24</v>
+      </c>
+      <c r="C13">
+        <v>106.73</v>
+      </c>
+      <c r="D13">
+        <v>106.96</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.22</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42621.725798611114</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10413.11</v>
+      </c>
+      <c r="B14">
+        <v>10301.85</v>
+      </c>
+      <c r="C14">
+        <v>106.5</v>
+      </c>
+      <c r="D14">
+        <v>107.65</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.08</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42622.756307870368</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,6 +724,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10627.62</v>
+      </c>
+      <c r="B15">
+        <v>10413.11</v>
+      </c>
+      <c r="C15">
+        <v>104.49</v>
+      </c>
+      <c r="D15">
+        <v>106.64</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2.06</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42626.544479166667</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.676701388889</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9956.5</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>108.67</v>
+      </c>
+      <c r="F4">
+        <v>107.73</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-0.87</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +477,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42634.664722222224</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>108.42</v>
+      </c>
+      <c r="F5">
+        <v>108.42</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -421,28 +421,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42640.548472222225</v>
+        <v>42642.487199074072</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9876.5</v>
+        <v>9946.5</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>107.01</v>
       </c>
       <c r="F3">
-        <v>106.31</v>
+        <v>105.87</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-2.4700000000000002</v>
+        <v>-1.07</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42643.486250000002</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9802.77</v>
+      </c>
+      <c r="D4">
+        <v>9946.5</v>
+      </c>
+      <c r="E4">
+        <v>105.83</v>
+      </c>
+      <c r="F4">
+        <v>102.77</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-2.89</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -474,6 +475,35 @@
         <v>-2.89</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42644.476481481484</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>9874.82</v>
+      </c>
+      <c r="D5">
+        <v>9802.77</v>
+      </c>
+      <c r="E5">
+        <v>103.42</v>
+      </c>
+      <c r="F5">
+        <v>104.94</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.47</v>
+      </c>
+      <c r="I5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,8 +379,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
@@ -507,6 +506,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42650.3669212963</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9836.7999999999993</v>
+      </c>
+      <c r="D6">
+        <v>9874.82</v>
+      </c>
+      <c r="E6">
+        <v>104.839996</v>
+      </c>
+      <c r="F6">
+        <v>104.029999</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.77</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -369,20 +369,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -535,6 +535,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42651.513356481482</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9818.6</v>
+      </c>
+      <c r="D7">
+        <v>9836.7999999999993</v>
+      </c>
+      <c r="E7">
+        <v>104.459999</v>
+      </c>
+      <c r="F7">
+        <v>104.07</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-0.37</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade.xlsx
@@ -369,20 +369,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -564,6 +564,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42654.743761574071</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>9811.24</v>
+      </c>
+      <c r="D8">
+        <v>9818.6</v>
+      </c>
+      <c r="E8">
+        <v>104.43</v>
+      </c>
+      <c r="F8">
+        <v>104.269997</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-0.15</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
